--- a/testing/TestCases.xlsx
+++ b/testing/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -234,20 +234,6 @@
   <si>
     <t>userid:ben.ng.2009
 password:qwerty129
-course: IS102
-section:S1
-bid amount:20</t>
-  </si>
-  <si>
-    <t>userid:ben.ng.2009
-password:qwerty129
-course: IS102
-section:S11
-bid amount:20</t>
-  </si>
-  <si>
-    <t>userid:ben.ng.2009
-password:qwerty129
 course: IS106
 section:S1
 bid amount:20</t>
@@ -267,28 +253,7 @@
 bid amount:20</t>
   </si>
   <si>
-    <t>userid:winston.ng.2009
-password:qwerty150
-course: IS209
-section:S1
-bid amount:20</t>
-  </si>
-  <si>
-    <t>userid:henrry.ng.2009
-password:qwerty200
-course: IS100
-section:S1
-bid amount:30</t>
-  </si>
-  <si>
     <t>Validate that student cannot add a bid if he has already bidded for 5 sections</t>
-  </si>
-  <si>
-    <t>userid:ricky.ng.2009
-password:qwerty145
-course: IS105
-section:S1
-bid amount:30</t>
   </si>
   <si>
     <t>userid:ben.ng.2009
@@ -314,13 +279,6 @@
   <si>
     <t>userid:ben.ng.2009
 password:qwerty129
-course: IS105
-section:S1
-bid amount:abc123</t>
-  </si>
-  <si>
-    <t>userid:ben.ng.2009
-password:qwerty129
 course:ECON001
 section:S1
 bid amount:10</t>
@@ -334,16 +292,6 @@
 Course: IS100
 Section: S1
 e$: 90</t>
-  </si>
-  <si>
-    <t>userid:ben.ng.2009
-password:qwerty129
-course: IS102
-section:S1
-bid amount:20
-course: IS102
-section:S1
-bid amount:50</t>
   </si>
   <si>
     <t>userid:winston.ng.2009
@@ -934,6 +882,104 @@
 bid.csv : 30
 No error!
 Database: bid line loaded - 26</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009
+password:qwerty129
+course: IS105
+section:S1
+bid amount:20</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009
+password:qwerty129
+course: IS201
+section:S11
+bid amount:20</t>
+  </si>
+  <si>
+    <t>"invalid section"</t>
+  </si>
+  <si>
+    <t>"invalid course"
+"not your own course"</t>
+  </si>
+  <si>
+    <t>"Class timetabe clash"</t>
+  </si>
+  <si>
+    <t>"exam timetable clash"</t>
+  </si>
+  <si>
+    <t>"course completed"</t>
+  </si>
+  <si>
+    <t>userid:olivia.ng.2009
+password:qwerty142
+course: IS209
+section:S1
+bid amount:20</t>
+  </si>
+  <si>
+    <t>"incompleted prerequisite"</t>
+  </si>
+  <si>
+    <t>userid:henrry.ng.2009
+password:qwerty200
+course: IS100
+section:S1
+bid amount:40</t>
+  </si>
+  <si>
+    <t>"not enough e-dollar"</t>
+  </si>
+  <si>
+    <t>userid:ricky.ng.2009
+password:qwerty145
+course: IS201
+section:S1
+bid amount:30</t>
+  </si>
+  <si>
+    <t>"section limit reach"</t>
+  </si>
+  <si>
+    <t>"Please enter a number"</t>
+  </si>
+  <si>
+    <t>"Please enter a valid number"</t>
+  </si>
+  <si>
+    <t>"Please enter a value that is no less than 10"</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009
+password:qwerty129
+course: IS105
+section:S1
+bid amount:20
+course: IS105
+section:S1
+bid amount:50</t>
+  </si>
+  <si>
+    <t>"Class timetable clash, exam timetable clash"</t>
+  </si>
+  <si>
+    <t>"not own school"</t>
+  </si>
+  <si>
+    <t>"Please enter a value"</t>
+  </si>
+  <si>
+    <t>"Drop bid successfully"</t>
+  </si>
+  <si>
+    <t>userid:ben.ng.2009
+password:qwerty129
+course: IS108
+section:S1
+bid amount:abc123</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1102,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1098,6 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1540,6 +1587,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48847</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>989135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605294</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1440724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16473366" y="3016250"/>
+          <a:ext cx="11009524" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183173</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1361913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219808</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1379955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16607692" y="16443163"/>
+          <a:ext cx="3162789" cy="2924388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1744,7 +1867,7 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1810,7 +1933,7 @@
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="63.75" x14ac:dyDescent="0.2">
@@ -1827,7 +1950,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>22</v>
@@ -1853,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>27</v>
@@ -1879,7 +2002,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>28</v>
@@ -1905,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>27</v>
@@ -1931,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>28</v>
@@ -1957,7 +2080,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>31</v>
@@ -1983,7 +2106,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>32</v>
@@ -2009,7 +2132,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>34</v>
@@ -2035,7 +2158,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
@@ -2061,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>41</v>
@@ -2087,7 +2210,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>42</v>
@@ -2124,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2191,7 +2314,7 @@
     </row>
     <row r="2" spans="1:28" s="18" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2206,13 +2329,19 @@
         <v>67</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2226,13 +2355,19 @@
         <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2246,13 +2381,19 @@
         <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2266,13 +2407,19 @@
         <v>62</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2286,13 +2433,19 @@
         <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2306,13 +2459,19 @@
         <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2326,13 +2485,19 @@
         <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2346,13 +2511,19 @@
         <v>49</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2363,16 +2534,22 @@
         <v>45</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2386,13 +2563,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2406,13 +2589,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2426,13 +2615,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
@@ -2446,13 +2641,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
@@ -2466,13 +2667,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
@@ -2486,13 +2693,19 @@
         <v>46</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
@@ -2500,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>14</v>
@@ -2509,10 +2722,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
@@ -2520,16 +2733,16 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>7</v>
@@ -2540,16 +2753,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>7</v>
@@ -2560,16 +2773,16 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>7</v>
@@ -2580,19 +2793,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="G23" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="114.75" x14ac:dyDescent="0.2">
@@ -2606,16 +2825,16 @@
         <v>64</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>59</v>
@@ -2623,7 +2842,7 @@
     </row>
     <row r="27" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2632,22 +2851,22 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>60</v>
@@ -2658,22 +2877,22 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>59</v>
@@ -2684,22 +2903,22 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>60</v>
@@ -2710,22 +2929,22 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>59</v>
@@ -2736,22 +2955,22 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>60</v>
@@ -2762,22 +2981,22 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>60</v>
@@ -2788,22 +3007,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>59</v>
@@ -2814,22 +3033,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>59</v>
@@ -2840,22 +3059,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="F37" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>59</v>

--- a/testing/TestCases.xlsx
+++ b/testing/TestCases.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12525" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Iteration1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
-    <sheet name="Iteration2" sheetId="4" r:id="rId3"/>
+    <sheet name="Iteration1-Manual-Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Iteration2-Manual-bootstrap-bid" sheetId="4" r:id="rId2"/>
+    <sheet name="Iteration1-JSON-Login" sheetId="5" r:id="rId3"/>
+    <sheet name="Iteration2-JSON-authenticate" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="205">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -980,6 +981,9 @@
 course: IS108
 section:S1
 bid amount:abc123</t>
+  </si>
+  <si>
+    <t>Bidding (add)</t>
   </si>
 </sst>
 </file>
@@ -1140,11 +1144,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1169,13 +1173,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
+      <xdr:colOff>917742</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>673101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>244642</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>774700</xdr:rowOff>
     </xdr:to>
@@ -1193,8 +1197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11061700" y="2222501"/>
-          <a:ext cx="3708400" cy="901699"/>
+          <a:off x="10974137" y="2568075"/>
+          <a:ext cx="3718426" cy="903704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,6 +1667,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2686539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>591620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1404148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20161250" y="36964327"/>
+          <a:ext cx="10971428" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1867,7 +1909,7 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1931,8 +1973,8 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:28" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2233,22 +2275,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2312,18 +2342,18 @@
       <c r="AA1" s="14"/>
       <c r="AB1" s="14"/>
     </row>
-    <row r="2" spans="1:28" s="18" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:28" s="19" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:28" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>67</v>
@@ -2348,8 +2378,8 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
+      <c r="B5" t="s">
+        <v>204</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>48</v>
@@ -2375,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>47</v>
@@ -2427,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>63</v>
@@ -2453,7 +2483,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>65</v>
@@ -2479,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>64</v>
@@ -2493,7 +2523,7 @@
       <c r="F10" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>190</v>
       </c>
       <c r="H10" t="s">
@@ -2505,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>49</v>
@@ -2531,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>71</v>
@@ -2557,9 +2587,9 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2583,9 +2613,9 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -2609,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>9</v>
@@ -2635,9 +2665,9 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2661,9 +2691,9 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -2819,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>64</v>
@@ -2840,12 +2870,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
@@ -3089,4 +3119,30 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>